--- a/WorldTourismOrganizationVisitOrg.xlsx
+++ b/WorldTourismOrganizationVisitOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Documents\GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E50FE9BC-DADB-4EAE-B680-7872067E18FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7AE925-C6BD-4C13-94E5-DEF9B17EC991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2103,7 +2103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2519,44 +2519,44 @@
     </xf>
   </cellXfs>
   <cellStyles count="38">
-    <cellStyle name="20 % - Farve1" xfId="15" builtinId="30" hidden="1"/>
-    <cellStyle name="20 % - Farve2" xfId="19" builtinId="34" hidden="1"/>
-    <cellStyle name="20 % - Farve3" xfId="23" builtinId="38" hidden="1"/>
-    <cellStyle name="20 % - Farve4" xfId="27" builtinId="42" hidden="1"/>
-    <cellStyle name="20 % - Farve5" xfId="31" builtinId="46" hidden="1"/>
-    <cellStyle name="20 % - Farve6" xfId="35" builtinId="50" hidden="1"/>
-    <cellStyle name="40 % - Farve1" xfId="16" builtinId="31" hidden="1"/>
-    <cellStyle name="40 % - Farve2" xfId="20" builtinId="35" hidden="1"/>
-    <cellStyle name="40 % - Farve3" xfId="24" builtinId="39" hidden="1"/>
-    <cellStyle name="40 % - Farve4" xfId="28" builtinId="43" hidden="1"/>
-    <cellStyle name="40 % - Farve5" xfId="32" builtinId="47" hidden="1"/>
-    <cellStyle name="40 % - Farve6" xfId="36" builtinId="51" hidden="1"/>
-    <cellStyle name="60 % - Farve1" xfId="17" builtinId="32" hidden="1"/>
-    <cellStyle name="60 % - Farve2" xfId="21" builtinId="36" hidden="1"/>
-    <cellStyle name="60 % - Farve3" xfId="25" builtinId="40" hidden="1"/>
-    <cellStyle name="60 % - Farve4" xfId="29" builtinId="44" hidden="1"/>
-    <cellStyle name="60 % - Farve5" xfId="33" builtinId="48" hidden="1"/>
-    <cellStyle name="60 % - Farve6" xfId="37" builtinId="52" hidden="1"/>
-    <cellStyle name="Advarselstekst" xfId="11" builtinId="11" hidden="1"/>
-    <cellStyle name="Bemærk!" xfId="12" builtinId="10" hidden="1"/>
-    <cellStyle name="Beregning" xfId="8" builtinId="22" hidden="1"/>
-    <cellStyle name="Farve1" xfId="14" builtinId="29" hidden="1"/>
-    <cellStyle name="Farve2" xfId="18" builtinId="33" hidden="1"/>
-    <cellStyle name="Farve3" xfId="22" builtinId="37" hidden="1"/>
-    <cellStyle name="Farve4" xfId="26" builtinId="41" hidden="1"/>
-    <cellStyle name="Farve5" xfId="30" builtinId="45" hidden="1"/>
-    <cellStyle name="Farve6" xfId="34" builtinId="49" hidden="1"/>
-    <cellStyle name="Forklarende tekst" xfId="13" builtinId="53" hidden="1"/>
-    <cellStyle name="God" xfId="6" builtinId="26" hidden="1"/>
-    <cellStyle name="Kontrollér celle" xfId="10" builtinId="23" hidden="1"/>
+    <cellStyle name="20% - Accent1" xfId="15" builtinId="30" hidden="1"/>
+    <cellStyle name="20% - Accent2" xfId="19" builtinId="34" hidden="1"/>
+    <cellStyle name="20% - Accent3" xfId="23" builtinId="38" hidden="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" hidden="1"/>
+    <cellStyle name="20% - Accent5" xfId="31" builtinId="46" hidden="1"/>
+    <cellStyle name="20% - Accent6" xfId="35" builtinId="50" hidden="1"/>
+    <cellStyle name="40% - Accent1" xfId="16" builtinId="31" hidden="1"/>
+    <cellStyle name="40% - Accent2" xfId="20" builtinId="35" hidden="1"/>
+    <cellStyle name="40% - Accent3" xfId="24" builtinId="39" hidden="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" hidden="1"/>
+    <cellStyle name="40% - Accent5" xfId="32" builtinId="47" hidden="1"/>
+    <cellStyle name="40% - Accent6" xfId="36" builtinId="51" hidden="1"/>
+    <cellStyle name="60% - Accent1" xfId="17" builtinId="32" hidden="1"/>
+    <cellStyle name="60% - Accent2" xfId="21" builtinId="36" hidden="1"/>
+    <cellStyle name="60% - Accent3" xfId="25" builtinId="40" hidden="1"/>
+    <cellStyle name="60% - Accent4" xfId="29" builtinId="44" hidden="1"/>
+    <cellStyle name="60% - Accent5" xfId="33" builtinId="48" hidden="1"/>
+    <cellStyle name="60% - Accent6" xfId="37" builtinId="52" hidden="1"/>
+    <cellStyle name="Accent1" xfId="14" builtinId="29" hidden="1"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33" hidden="1"/>
+    <cellStyle name="Accent3" xfId="22" builtinId="37" hidden="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" hidden="1"/>
+    <cellStyle name="Accent5" xfId="30" builtinId="45" hidden="1"/>
+    <cellStyle name="Accent6" xfId="34" builtinId="49" hidden="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" hidden="1"/>
+    <cellStyle name="Calculation" xfId="8" builtinId="22" hidden="1"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23" hidden="1"/>
+    <cellStyle name="Explanatory Text" xfId="13" builtinId="53" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" hidden="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" hidden="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" hidden="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" hidden="1"/>
+    <cellStyle name="Linked Cell" xfId="9" builtinId="24" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" hidden="1"/>
-    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" hidden="1"/>
-    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" hidden="1"/>
-    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" hidden="1"/>
-    <cellStyle name="Sammenkædet celle" xfId="9" builtinId="24" hidden="1"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" hidden="1"/>
-    <cellStyle name="Ugyldig" xfId="7" builtinId="27" hidden="1"/>
+    <cellStyle name="Note" xfId="12" builtinId="10" hidden="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
+    <cellStyle name="Warning Text" xfId="11" builtinId="11" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2867,10 +2867,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AP217" workbookViewId="0">
+      <selection activeCell="BH17" sqref="BH17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3420,76 +3422,76 @@
         <v>597</v>
       </c>
       <c r="AN10">
-        <v>22858871.128438659</v>
+        <v>22858871</v>
       </c>
       <c r="AO10">
-        <v>23733141.062398013</v>
+        <v>23733141</v>
       </c>
       <c r="AP10">
-        <v>25708996.396140344</v>
+        <v>25708996</v>
       </c>
       <c r="AQ10">
-        <v>28265206.556734476</v>
+        <v>28265206</v>
       </c>
       <c r="AR10">
-        <v>32442075.632147122</v>
+        <v>32442075</v>
       </c>
       <c r="AS10">
-        <v>36338661.481304929</v>
+        <v>36338661</v>
       </c>
       <c r="AT10">
-        <v>37120451.622933514</v>
+        <v>37120451</v>
       </c>
       <c r="AU10">
-        <v>41532534.586634077</v>
+        <v>41532534</v>
       </c>
       <c r="AV10">
-        <v>43474946.077532195</v>
+        <v>43474946</v>
       </c>
       <c r="AW10">
-        <v>51734736.065364398</v>
+        <v>51734736</v>
       </c>
       <c r="AX10">
-        <v>55008979.38588313</v>
+        <v>55008979</v>
       </c>
       <c r="AY10">
-        <v>60973292.290747806</v>
+        <v>60973292</v>
       </c>
       <c r="AZ10">
-        <v>69425548.804341733</v>
+        <v>69425548</v>
       </c>
       <c r="BA10">
-        <v>79523573.902639836</v>
+        <v>79523573</v>
       </c>
       <c r="BB10">
-        <v>78927995.866325051</v>
+        <v>78927995</v>
       </c>
       <c r="BC10">
-        <v>90023607.249531984</v>
+        <v>90023607</v>
       </c>
       <c r="BD10">
-        <v>76660005.52949211</v>
+        <v>76660005</v>
       </c>
       <c r="BE10">
-        <v>84844588.300813392</v>
+        <v>84844588</v>
       </c>
       <c r="BF10">
-        <v>85114141.128268033</v>
+        <v>85114141</v>
       </c>
       <c r="BG10">
-        <v>90876674.135081097</v>
+        <v>90876674</v>
       </c>
       <c r="BH10">
-        <v>88169233.284444243</v>
+        <v>88169233</v>
       </c>
       <c r="BI10">
-        <v>87721747.497329518</v>
+        <v>87721747</v>
       </c>
       <c r="BJ10">
-        <v>94181175.8660824</v>
+        <v>94181175</v>
       </c>
       <c r="BK10">
-        <v>101463695.27446568</v>
+        <v>101463695</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
@@ -23446,7 +23448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24485,7 +24487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>330</v>
       </c>
